--- a/Documentation/FHF_IntegrationTestCases.xlsx
+++ b/Documentation/FHF_IntegrationTestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\FinalProject\fu-house-finder\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF8396-F549-4CC2-AD32-13FEFBF4CA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C1B7A8-8209-4560-B5ED-0559331C8681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="891" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -32,35 +32,24 @@
     <sheet name="(Staff) Change Password" sheetId="21" r:id="rId17"/>
     <sheet name="(Admin) Manage Account" sheetId="22" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -10740,26 +10729,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="91.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -10774,7 +10763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -10789,12 +10778,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
@@ -10808,7 +10797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>333</v>
       </c>
@@ -10822,7 +10811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>334</v>
       </c>
@@ -10836,7 +10825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>337</v>
       </c>
@@ -10850,7 +10839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>336</v>
       </c>
@@ -10864,7 +10853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>338</v>
       </c>
@@ -10878,7 +10867,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>44907</v>
       </c>
@@ -10892,7 +10881,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>342</v>
       </c>
@@ -10906,7 +10895,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>344</v>
       </c>
@@ -10920,7 +10909,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>343</v>
       </c>
@@ -10934,7 +10923,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>343</v>
       </c>
@@ -10948,27 +10937,27 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -10985,29 +10974,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11015,7 +11004,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -11035,7 +11024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -11059,7 +11048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -11067,7 +11056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -11075,7 +11064,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -11119,7 +11108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>829</v>
       </c>
@@ -11163,7 +11152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>829</v>
       </c>
@@ -11207,7 +11196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>829</v>
       </c>
@@ -11251,7 +11240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>829</v>
       </c>
@@ -11295,7 +11284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>853</v>
       </c>
@@ -11339,7 +11328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>853</v>
       </c>
@@ -11381,7 +11370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>853</v>
       </c>
@@ -11423,7 +11412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -11439,7 +11428,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -11455,7 +11444,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -11471,7 +11460,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -11487,7 +11476,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11503,7 +11492,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -11519,7 +11508,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -11535,7 +11524,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -11551,7 +11540,7 @@
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -11567,7 +11556,7 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -11583,7 +11572,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -11599,7 +11588,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -11628,25 +11617,25 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11654,7 +11643,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -11674,7 +11663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -11698,7 +11687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -11706,7 +11695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -11714,7 +11703,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -11758,7 +11747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>870</v>
       </c>
@@ -11803,7 +11792,7 @@
       </c>
       <c r="O8" s="26"/>
     </row>
-    <row r="9" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>870</v>
       </c>
@@ -11848,7 +11837,7 @@
       </c>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>870</v>
       </c>
@@ -11893,7 +11882,7 @@
       </c>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>870</v>
       </c>
@@ -11938,7 +11927,7 @@
       </c>
       <c r="O11" s="26"/>
     </row>
-    <row r="12" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>870</v>
       </c>
@@ -11983,7 +11972,7 @@
       </c>
       <c r="O12" s="26"/>
     </row>
-    <row r="13" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>888</v>
       </c>
@@ -12028,7 +12017,7 @@
       </c>
       <c r="O13" s="26"/>
     </row>
-    <row r="14" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>888</v>
       </c>
@@ -12073,7 +12062,7 @@
       </c>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>898</v>
       </c>
@@ -12118,7 +12107,7 @@
       </c>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>905</v>
       </c>
@@ -12163,7 +12152,7 @@
       </c>
       <c r="O16" s="26"/>
     </row>
-    <row r="17" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>905</v>
       </c>
@@ -12208,7 +12197,7 @@
       </c>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>905</v>
       </c>
@@ -12253,7 +12242,7 @@
       </c>
       <c r="O18" s="26"/>
     </row>
-    <row r="19" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>905</v>
       </c>
@@ -12298,7 +12287,7 @@
       </c>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>929</v>
       </c>
@@ -12343,7 +12332,7 @@
       </c>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>938</v>
       </c>
@@ -12386,7 +12375,7 @@
       </c>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>944</v>
       </c>
@@ -12429,7 +12418,7 @@
       </c>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>949</v>
       </c>
@@ -12474,7 +12463,7 @@
       </c>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>949</v>
       </c>
@@ -12517,7 +12506,7 @@
       </c>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>949</v>
       </c>
@@ -12560,7 +12549,7 @@
       </c>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>963</v>
       </c>
@@ -12605,7 +12594,7 @@
       </c>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>963</v>
       </c>
@@ -12650,7 +12639,7 @@
       </c>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>974</v>
       </c>
@@ -12693,7 +12682,7 @@
       </c>
       <c r="O28" s="26"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -12710,7 +12699,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -12727,7 +12716,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="26"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -12744,7 +12733,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -12761,7 +12750,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="26"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -12778,7 +12767,7 @@
       <c r="N33" s="23"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -12795,7 +12784,7 @@
       <c r="N34" s="23"/>
       <c r="O34" s="26"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -12812,7 +12801,7 @@
       <c r="N35" s="23"/>
       <c r="O35" s="26"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -12842,25 +12831,25 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12868,7 +12857,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -12888,7 +12877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -12910,7 +12899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -12918,7 +12907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -12926,7 +12915,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
@@ -12970,7 +12959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>1142</v>
       </c>
@@ -13010,7 +12999,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>1149</v>
       </c>
@@ -13050,7 +13039,7 @@
       </c>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1154</v>
       </c>
@@ -13090,7 +13079,7 @@
       </c>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>1159</v>
       </c>
@@ -13130,7 +13119,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1164</v>
       </c>
@@ -13170,7 +13159,7 @@
       </c>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1169</v>
       </c>
@@ -13210,7 +13199,7 @@
       </c>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="285" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>1174</v>
       </c>
@@ -13250,7 +13239,7 @@
       </c>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" ht="280.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="280.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>1179</v>
       </c>
@@ -13290,7 +13279,7 @@
       </c>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" ht="247.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="25" customFormat="1" ht="247.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>1184</v>
       </c>
@@ -13330,7 +13319,7 @@
       </c>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" s="25" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="25" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1190</v>
       </c>
@@ -13370,7 +13359,7 @@
       </c>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="276.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="276.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>1195</v>
       </c>
@@ -13410,7 +13399,7 @@
       </c>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>1201</v>
       </c>
@@ -13448,7 +13437,7 @@
       </c>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>1206</v>
       </c>
@@ -13486,7 +13475,7 @@
       </c>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>1210</v>
       </c>
@@ -13524,7 +13513,7 @@
       </c>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>1214</v>
       </c>
@@ -13564,7 +13553,7 @@
       </c>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>1219</v>
       </c>
@@ -13602,7 +13591,7 @@
       </c>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>1222</v>
       </c>
@@ -13642,7 +13631,7 @@
       </c>
       <c r="N24" s="23"/>
     </row>
-    <row r="25" spans="1:14" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="345" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>1228</v>
       </c>
@@ -13682,7 +13671,7 @@
       </c>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" ht="291.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="291.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>1234</v>
       </c>
@@ -13722,7 +13711,7 @@
       </c>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14" ht="315.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="315.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>1237</v>
       </c>
@@ -13762,7 +13751,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="315.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="315.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>1242</v>
       </c>
@@ -13812,28 +13801,28 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13841,7 +13830,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13861,7 +13850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -13885,7 +13874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -13893,7 +13882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -13901,7 +13890,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -13945,7 +13934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>817</v>
       </c>
@@ -13987,7 +13976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>817</v>
       </c>
@@ -14029,7 +14018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>981</v>
       </c>
@@ -14071,7 +14060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>988</v>
       </c>
@@ -14113,7 +14102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>995</v>
       </c>
@@ -14155,7 +14144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1000</v>
       </c>
@@ -14197,7 +14186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>1001</v>
       </c>
@@ -14239,7 +14228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -14255,7 +14244,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -14271,7 +14260,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -14287,7 +14276,7 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -14303,7 +14292,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -14319,7 +14308,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -14335,7 +14324,7 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -14364,25 +14353,25 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="e" cm="1">
         <f t="array" ref="A1">A1:M21Module Name</f>
         <v>#NAME?</v>
@@ -14391,7 +14380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -14411,7 +14400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -14433,7 +14422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -14441,7 +14430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -14449,7 +14438,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -14493,7 +14482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>1002</v>
       </c>
@@ -14533,7 +14522,7 @@
       </c>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>1010</v>
       </c>
@@ -14573,7 +14562,7 @@
       </c>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1016</v>
       </c>
@@ -14613,7 +14602,7 @@
       </c>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>1022</v>
       </c>
@@ -14653,7 +14642,7 @@
       </c>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1029</v>
       </c>
@@ -14693,7 +14682,7 @@
       </c>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1036</v>
       </c>
@@ -14733,7 +14722,7 @@
       </c>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="1:14" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>1042</v>
       </c>
@@ -14773,7 +14762,7 @@
       </c>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="1:14" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>1048</v>
       </c>
@@ -14813,7 +14802,7 @@
       </c>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>1054</v>
       </c>
@@ -14853,7 +14842,7 @@
       </c>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1059</v>
       </c>
@@ -14893,7 +14882,7 @@
       </c>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>1064</v>
       </c>
@@ -14933,7 +14922,7 @@
       </c>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>1069</v>
       </c>
@@ -14973,7 +14962,7 @@
       </c>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>1074</v>
       </c>
@@ -15013,7 +15002,7 @@
       </c>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>1078</v>
       </c>
@@ -15053,7 +15042,7 @@
       </c>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>1082</v>
       </c>
@@ -15093,7 +15082,7 @@
       </c>
       <c r="N22" s="22"/>
     </row>
-    <row r="23" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>1090</v>
       </c>
@@ -15133,7 +15122,7 @@
       </c>
       <c r="N23" s="22"/>
     </row>
-    <row r="24" spans="1:14" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>1098</v>
       </c>
@@ -15173,7 +15162,7 @@
       </c>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>1105</v>
       </c>
@@ -15213,7 +15202,7 @@
       </c>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="1:14" s="25" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="25" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>1110</v>
       </c>
@@ -15253,7 +15242,7 @@
       </c>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" s="25" customFormat="1" ht="196.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="25" customFormat="1" ht="196.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>1117</v>
       </c>
@@ -15293,7 +15282,7 @@
       </c>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>1123</v>
       </c>
@@ -15333,7 +15322,7 @@
       </c>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" s="25" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>1129</v>
       </c>
@@ -15373,7 +15362,7 @@
       </c>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:14" s="25" customFormat="1" ht="298.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="25" customFormat="1" ht="298.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>1135</v>
       </c>
@@ -15426,25 +15415,25 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15452,7 +15441,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -15472,7 +15461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -15494,7 +15483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -15502,7 +15491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -15510,7 +15499,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
@@ -15554,7 +15543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>1247</v>
       </c>
@@ -15594,7 +15583,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>1254</v>
       </c>
@@ -15634,7 +15623,7 @@
       </c>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1260</v>
       </c>
@@ -15674,7 +15663,7 @@
       </c>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>1267</v>
       </c>
@@ -15714,7 +15703,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1273</v>
       </c>
@@ -15754,7 +15743,7 @@
       </c>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1279</v>
       </c>
@@ -15794,7 +15783,7 @@
       </c>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>1286</v>
       </c>
@@ -15834,7 +15823,7 @@
       </c>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>1293</v>
       </c>
@@ -15874,7 +15863,7 @@
       </c>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>1298</v>
       </c>
@@ -15914,7 +15903,7 @@
       </c>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1304</v>
       </c>
@@ -15952,7 +15941,7 @@
       </c>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>1310</v>
       </c>
@@ -15992,7 +15981,7 @@
       </c>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>1317</v>
       </c>
@@ -16032,7 +16021,7 @@
       </c>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -16048,7 +16037,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -16073,29 +16062,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C70945C-6015-4A04-977D-71A89339DCA9}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -16103,7 +16092,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -16123,7 +16112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -16145,7 +16134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -16153,7 +16142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -16161,7 +16150,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
@@ -16205,7 +16194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="255.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="255.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>1322</v>
       </c>
@@ -16245,7 +16234,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="253.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="253.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>1328</v>
       </c>
@@ -16285,7 +16274,7 @@
       </c>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="235.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="235.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1333</v>
       </c>
@@ -16325,7 +16314,7 @@
       </c>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" ht="268.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="268.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>1338</v>
       </c>
@@ -16365,7 +16354,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" ht="237.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="237.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1343</v>
       </c>
@@ -16405,7 +16394,7 @@
       </c>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="258" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="258" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1349</v>
       </c>
@@ -16445,7 +16434,7 @@
       </c>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="250.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>1354</v>
       </c>
@@ -16485,7 +16474,7 @@
       </c>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" ht="280.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="280.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>1359</v>
       </c>
@@ -16525,7 +16514,7 @@
       </c>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="25" customFormat="1" ht="269.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>1364</v>
       </c>
@@ -16565,7 +16554,7 @@
       </c>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" s="25" customFormat="1" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="25" customFormat="1" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1369</v>
       </c>
@@ -16605,7 +16594,7 @@
       </c>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="278.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="278.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>1373</v>
       </c>
@@ -16645,7 +16634,7 @@
       </c>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>1377</v>
       </c>
@@ -16685,7 +16674,7 @@
       </c>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>1380</v>
       </c>
@@ -16723,7 +16712,7 @@
       </c>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" ht="309" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="309" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>1382</v>
       </c>
@@ -16763,7 +16752,7 @@
       </c>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>1387</v>
       </c>
@@ -16803,7 +16792,7 @@
       </c>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" ht="267" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="267" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>1389</v>
       </c>
@@ -16843,7 +16832,7 @@
       </c>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -16859,7 +16848,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="3" t="s">
         <v>1392</v>
@@ -16891,25 +16880,25 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -16917,7 +16906,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -16937,7 +16926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -16959,7 +16948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -16967,7 +16956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -16975,7 +16964,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
@@ -17019,7 +17008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>1393</v>
       </c>
@@ -17059,7 +17048,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>1400</v>
       </c>
@@ -17099,7 +17088,7 @@
       </c>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1405</v>
       </c>
@@ -17139,7 +17128,7 @@
       </c>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>1409</v>
       </c>
@@ -17179,7 +17168,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1413</v>
       </c>
@@ -17219,7 +17208,7 @@
       </c>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1418</v>
       </c>
@@ -17259,7 +17248,7 @@
       </c>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>1423</v>
       </c>
@@ -17297,7 +17286,7 @@
       </c>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17313,7 +17302,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="3" t="s">
         <v>1392</v>
@@ -17345,25 +17334,25 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -17371,7 +17360,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -17391,7 +17380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -17413,7 +17402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -17421,7 +17410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -17429,7 +17418,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
@@ -17473,7 +17462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>1425</v>
       </c>
@@ -17511,7 +17500,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>1430</v>
       </c>
@@ -17549,7 +17538,7 @@
       </c>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1431</v>
       </c>
@@ -17587,7 +17576,7 @@
       </c>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>1432</v>
       </c>
@@ -17627,7 +17616,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1433</v>
       </c>
@@ -17667,7 +17656,7 @@
       </c>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1444</v>
       </c>
@@ -17705,7 +17694,7 @@
       </c>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -17721,7 +17710,7 @@
       <c r="M14" s="33"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17737,7 +17726,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="3" t="s">
         <v>1392</v>
@@ -17770,25 +17759,25 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -17796,7 +17785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -17816,7 +17805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -17840,7 +17829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -17848,7 +17837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -17856,7 +17845,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -17900,7 +17889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -17944,7 +17933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
@@ -17988,7 +17977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>55</v>
       </c>
@@ -18032,7 +18021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -18076,7 +18065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>399</v>
       </c>
@@ -18120,7 +18109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>399</v>
       </c>
@@ -18164,7 +18153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>407</v>
       </c>
@@ -18208,7 +18197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>407</v>
       </c>
@@ -18252,7 +18241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>407</v>
       </c>
@@ -18296,7 +18285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>407</v>
       </c>
@@ -18340,7 +18329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>423</v>
       </c>
@@ -18384,7 +18373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>423</v>
       </c>
@@ -18428,7 +18417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>423</v>
       </c>
@@ -18472,7 +18461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>423</v>
       </c>
@@ -18516,7 +18505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>423</v>
       </c>
@@ -18560,7 +18549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>423</v>
       </c>
@@ -18604,7 +18593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>423</v>
       </c>
@@ -18648,7 +18637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>423</v>
       </c>
@@ -18692,7 +18681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>475</v>
       </c>
@@ -18736,7 +18725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>475</v>
       </c>
@@ -18780,7 +18769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>475</v>
       </c>
@@ -18824,7 +18813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>475</v>
       </c>
@@ -18868,7 +18857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>475</v>
       </c>
@@ -18912,7 +18901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>497</v>
       </c>
@@ -18956,7 +18945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>497</v>
       </c>
@@ -19000,7 +18989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>497</v>
       </c>
@@ -19044,7 +19033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>497</v>
       </c>
@@ -19088,7 +19077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>497</v>
       </c>
@@ -19132,7 +19121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>521</v>
       </c>
@@ -19176,7 +19165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>521</v>
       </c>
@@ -19220,7 +19209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>521</v>
       </c>
@@ -19264,7 +19253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>521</v>
       </c>
@@ -19308,7 +19297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>521</v>
       </c>
@@ -19352,7 +19341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>543</v>
       </c>
@@ -19396,7 +19385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>543</v>
       </c>
@@ -19440,7 +19429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>543</v>
       </c>
@@ -19484,7 +19473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>543</v>
       </c>
@@ -19528,7 +19517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>543</v>
       </c>
@@ -19572,7 +19561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>543</v>
       </c>
@@ -19616,7 +19605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>543</v>
       </c>
@@ -19660,7 +19649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>543</v>
       </c>
@@ -19704,7 +19693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>543</v>
       </c>
@@ -19748,7 +19737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>573</v>
       </c>
@@ -19792,7 +19781,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>573</v>
       </c>
@@ -19836,7 +19825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>573</v>
       </c>
@@ -19880,7 +19869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>573</v>
       </c>
@@ -19924,7 +19913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>573</v>
       </c>
@@ -19968,7 +19957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>597</v>
       </c>
@@ -20012,7 +20001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>597</v>
       </c>
@@ -20056,7 +20045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>597</v>
       </c>
@@ -20100,7 +20089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>597</v>
       </c>
@@ -20144,7 +20133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>597</v>
       </c>
@@ -20188,7 +20177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>597</v>
       </c>
@@ -20232,7 +20221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>616</v>
       </c>
@@ -20276,7 +20265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>616</v>
       </c>
@@ -20318,7 +20307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>616</v>
       </c>
@@ -20360,7 +20349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>634</v>
       </c>
@@ -20402,7 +20391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>640</v>
       </c>
@@ -20446,7 +20435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>640</v>
       </c>
@@ -20490,7 +20479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>640</v>
       </c>
@@ -20534,7 +20523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>640</v>
       </c>
@@ -20578,7 +20567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>640</v>
       </c>
@@ -20622,7 +20611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>640</v>
       </c>
@@ -20666,7 +20655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>640</v>
       </c>
@@ -20710,7 +20699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>640</v>
       </c>
@@ -20754,7 +20743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>640</v>
       </c>
@@ -20798,7 +20787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>640</v>
       </c>
@@ -20842,7 +20831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>640</v>
       </c>
@@ -20886,7 +20875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>640</v>
       </c>
@@ -20930,7 +20919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>640</v>
       </c>
@@ -20974,7 +20963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>640</v>
       </c>
@@ -21018,7 +21007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>640</v>
       </c>
@@ -21062,7 +21051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>640</v>
       </c>
@@ -21106,7 +21095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>640</v>
       </c>
@@ -21150,7 +21139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>640</v>
       </c>
@@ -21194,7 +21183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>640</v>
       </c>
@@ -21238,7 +21227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>640</v>
       </c>
@@ -21282,7 +21271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>640</v>
       </c>
@@ -21326,7 +21315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>640</v>
       </c>
@@ -21370,7 +21359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>640</v>
       </c>
@@ -21414,7 +21403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>640</v>
       </c>
@@ -21458,7 +21447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>640</v>
       </c>
@@ -21502,7 +21491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>640</v>
       </c>
@@ -21546,7 +21535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>640</v>
       </c>
@@ -21590,7 +21579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>640</v>
       </c>
@@ -21634,7 +21623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>640</v>
       </c>
@@ -21678,7 +21667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>640</v>
       </c>
@@ -21722,7 +21711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>692</v>
       </c>
@@ -21766,7 +21755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>692</v>
       </c>
@@ -21810,7 +21799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>692</v>
       </c>
@@ -21854,7 +21843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>692</v>
       </c>
@@ -21898,7 +21887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>692</v>
       </c>
@@ -21942,7 +21931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>692</v>
       </c>
@@ -21986,7 +21975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>692</v>
       </c>
@@ -22030,7 +22019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>692</v>
       </c>
@@ -22074,7 +22063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>692</v>
       </c>
@@ -22118,7 +22107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>692</v>
       </c>
@@ -22162,7 +22151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>692</v>
       </c>
@@ -22220,25 +22209,25 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22246,7 +22235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -22266,7 +22255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -22290,7 +22279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -22298,7 +22287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -22306,7 +22295,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -22350,7 +22339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -22394,7 +22383,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>69</v>
       </c>
@@ -22438,7 +22427,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>69</v>
       </c>
@@ -22482,7 +22471,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>82</v>
       </c>
@@ -22526,7 +22515,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>91</v>
       </c>
@@ -22568,7 +22557,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>92</v>
       </c>
@@ -22610,7 +22599,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>98</v>
       </c>
@@ -22652,7 +22641,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>104</v>
       </c>
@@ -22694,7 +22683,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>108</v>
       </c>
@@ -22736,7 +22725,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>115</v>
       </c>
@@ -22778,7 +22767,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>115</v>
       </c>
@@ -22822,7 +22811,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -22866,7 +22855,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>123</v>
       </c>
@@ -22910,7 +22899,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>129</v>
       </c>
@@ -22954,7 +22943,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>130</v>
       </c>
@@ -22996,7 +22985,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>132</v>
       </c>
@@ -23038,7 +23027,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>141</v>
       </c>
@@ -23080,7 +23069,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>142</v>
       </c>
@@ -23122,7 +23111,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>143</v>
       </c>
@@ -23164,7 +23153,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>144</v>
       </c>
@@ -23206,7 +23195,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>163</v>
       </c>
@@ -23248,7 +23237,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>167</v>
       </c>
@@ -23290,7 +23279,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>180</v>
       </c>
@@ -23346,25 +23335,25 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -23372,7 +23361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -23392,7 +23381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -23416,7 +23405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -23424,7 +23413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -23432,7 +23421,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -23476,7 +23465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>189</v>
       </c>
@@ -23518,7 +23507,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>190</v>
       </c>
@@ -23560,7 +23549,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>191</v>
       </c>
@@ -23602,7 +23591,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>278</v>
       </c>
@@ -23654,28 +23643,28 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -23683,7 +23672,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -23703,7 +23692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -23727,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -23735,7 +23724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -23743,7 +23732,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -23787,7 +23776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23803,7 +23792,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -23819,7 +23808,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -23835,7 +23824,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -23851,7 +23840,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -23867,7 +23856,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -23883,7 +23872,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -23899,7 +23888,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -23915,7 +23904,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -23931,7 +23920,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -23947,7 +23936,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -23963,7 +23952,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -23979,7 +23968,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -23995,7 +23984,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -24024,25 +24013,25 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -24050,7 +24039,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -24070,7 +24059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -24094,7 +24083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -24102,7 +24091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -24110,7 +24099,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -24154,7 +24143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -24170,7 +24159,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -24186,7 +24175,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -24202,7 +24191,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -24218,7 +24207,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -24234,7 +24223,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -24250,7 +24239,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -24266,7 +24255,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -24282,7 +24271,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -24298,7 +24287,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -24314,7 +24303,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -24330,7 +24319,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -24346,7 +24335,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -24362,7 +24351,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -24391,25 +24380,25 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -24417,7 +24406,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -24437,7 +24426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -24461,7 +24450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -24469,7 +24458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -24477,7 +24466,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -24521,7 +24510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>357</v>
       </c>
@@ -24563,7 +24552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>360</v>
       </c>
@@ -24605,7 +24594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -24621,7 +24610,7 @@
       <c r="M10" s="32"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -24637,7 +24626,7 @@
       <c r="M11" s="32"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="26"/>
     </row>
   </sheetData>
@@ -24653,25 +24642,25 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -24679,7 +24668,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -24699,7 +24688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -24723,7 +24712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -24731,7 +24720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -24739,7 +24728,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -24783,7 +24772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>197</v>
       </c>
@@ -24825,7 +24814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>198</v>
       </c>
@@ -24867,7 +24856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>199</v>
       </c>
@@ -24909,7 +24898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>200</v>
       </c>
@@ -24951,7 +24940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>201</v>
       </c>
@@ -24993,7 +24982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>202</v>
       </c>
@@ -25035,7 +25024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>203</v>
       </c>
@@ -25077,7 +25066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>232</v>
       </c>
@@ -25119,7 +25108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>241</v>
       </c>
@@ -25161,7 +25150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>246</v>
       </c>
@@ -25203,7 +25192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>247</v>
       </c>
@@ -25247,7 +25236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>247</v>
       </c>
@@ -25291,7 +25280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>247</v>
       </c>
@@ -25335,7 +25324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>247</v>
       </c>
@@ -25379,7 +25368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>248</v>
       </c>
@@ -25421,7 +25410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>249</v>
       </c>
@@ -25463,7 +25452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>250</v>
       </c>
@@ -25518,25 +25507,25 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -25544,7 +25533,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -25564,7 +25553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -25588,7 +25577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -25596,7 +25585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -25604,7 +25593,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -25648,7 +25637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>300</v>
       </c>
@@ -25690,7 +25679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>299</v>
       </c>
@@ -25732,7 +25721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>298</v>
       </c>
@@ -25774,7 +25763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>297</v>
       </c>
@@ -25816,7 +25805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>296</v>
       </c>
@@ -25858,7 +25847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>295</v>
       </c>
@@ -25900,7 +25889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>294</v>
       </c>
@@ -25942,7 +25931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>293</v>
       </c>
@@ -25984,7 +25973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>292</v>
       </c>
@@ -26026,7 +26015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>291</v>
       </c>
@@ -26068,7 +26057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>290</v>
       </c>
@@ -26112,7 +26101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>290</v>
       </c>
@@ -26156,7 +26145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>290</v>
       </c>
@@ -26200,7 +26189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>290</v>
       </c>
@@ -26244,7 +26233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>289</v>
       </c>
@@ -26286,7 +26275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>288</v>
       </c>
